--- a/IMD_P4_SS15_Finale-Abgabe_404/03_IMD_P3_SS15_Produkt_404/IMD_P4_SS15_Projektprofil_404/IMD_P4_SS15_Projektprofil_404/IMD_P4_SS15_Projektprofil_404.xlsx
+++ b/IMD_P4_SS15_Finale-Abgabe_404/03_IMD_P3_SS15_Produkt_404/IMD_P4_SS15_Projektprofil_404/IMD_P4_SS15_Projektprofil_404/IMD_P4_SS15_Projektprofil_404.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Projekttitel „deligoo“</t>
   </si>
@@ -78,16 +78,52 @@
     <t>Studiengang</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>k.zwier@gmx.de</t>
+    </r>
+  </si>
+  <si>
     <t>Arif Basaran</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Lucida Grande"/>
+      </rPr>
+      <t>patrickfieger90@gmail.com</t>
+    </r>
+  </si>
+  <si>
     <t>Nadine Mlakar</t>
   </si>
   <si>
     <t>Semesterthema</t>
   </si>
   <si>
+    <t>arifbasaran.ka@gmail.com</t>
+  </si>
+  <si>
     <t>Das Internet der Dinge</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>nadine.mlakar92@yahoo.de</t>
+    </r>
   </si>
   <si>
     <t>Medientyp(en)</t>
@@ -164,7 +200,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -207,6 +243,23 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Lucida Grande"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <i val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
@@ -544,7 +597,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -605,28 +658,31 @@
     <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="8" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="1" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="1" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="1" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -686,6 +742,8 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2001,86 +2059,94 @@
       <c r="C6" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" t="s" s="20">
+        <v>11</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="5"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" ht="25" customHeight="1">
       <c r="A7" t="s" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" t="s" s="22">
         <v>8</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" t="s" s="20">
+        <v>13</v>
+      </c>
       <c r="E7" s="21"/>
       <c r="F7" s="12"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" ht="25" customHeight="1">
       <c r="A8" t="s" s="18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="D8" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="D8" t="s" s="20">
+        <v>16</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="12"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" ht="25" customHeight="1">
-      <c r="A9" s="20"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10"/>
       <c r="C9" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="D9" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="D9" t="s" s="18">
+        <v>18</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" ht="25" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="10"/>
       <c r="C10" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="D10" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="21"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" ht="25" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="10"/>
       <c r="C11" t="s" s="22">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="21"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" ht="25" customHeight="1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10"/>
       <c r="C12" t="s" s="22">
-        <v>17</v>
-      </c>
-      <c r="D12" s="20"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="21"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" ht="25" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="21"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -2096,139 +2162,139 @@
     </row>
     <row r="15" ht="19" customHeight="1">
       <c r="A15" t="s" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" ht="19" customHeight="1">
-      <c r="A16" t="s" s="25">
-        <v>20</v>
+      <c r="A16" t="s" s="26">
+        <v>24</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="9"/>
       <c r="E16" s="21"/>
       <c r="F16" s="12"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" ht="19" customHeight="1">
-      <c r="A17" t="s" s="27">
-        <v>21</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
+      <c r="A17" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" ht="19" customHeight="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" t="s" s="34">
-        <v>22</v>
+      <c r="A18" s="32"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" t="s" s="35">
+        <v>26</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="5"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" ht="19" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="9"/>
       <c r="E19" s="21"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" ht="19" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" ht="19" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" t="s" s="34">
-        <v>23</v>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" t="s" s="35">
+        <v>27</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
     <row r="22" ht="19" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="21"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" ht="19" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="21"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" ht="19" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="21"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
     <row r="25" ht="19" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="37"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="21"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" ht="19" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
     </row>
     <row r="27" ht="19" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" t="s" s="34">
-        <v>24</v>
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" t="s" s="35">
+        <v>28</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
     <row r="28" ht="176" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="16"/>
       <c r="E28" s="21"/>
       <c r="F28" s="12"/>
@@ -2239,6 +2305,11 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A17:C28"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D7" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="D9" r:id="rId3" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
